--- a/anda/互联网大楼北楼.xlsx
+++ b/anda/互联网大楼北楼.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>name</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -473,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\18F</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -484,6 +489,11 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>18F101东门</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>lock-hlw-1</t>
         </is>
       </c>
     </row>
@@ -500,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\18F</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,6 +521,11 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>18F101西门</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>lock-hlw-2</t>
         </is>
       </c>
     </row>
@@ -527,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\18F</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -538,6 +553,11 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>18F102东门</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>lock-hlw-3</t>
         </is>
       </c>
     </row>
@@ -554,7 +574,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\18F</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -565,6 +585,11 @@
       <c r="E5" t="inlineStr">
         <is>
           <t>18F102西门</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>lock-hlw-4</t>
         </is>
       </c>
     </row>
@@ -581,7 +606,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\17F</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -592,6 +617,11 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>17F106室</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>lock-hlw-20</t>
         </is>
       </c>
     </row>
@@ -608,7 +638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\17F</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -619,6 +649,11 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>17F107室</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>lock-hlw-21</t>
         </is>
       </c>
     </row>
@@ -635,7 +670,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\17F</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -646,6 +681,11 @@
       <c r="E8" t="inlineStr">
         <is>
           <t>17F104西门</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>lock-hlw-22</t>
         </is>
       </c>
     </row>
@@ -662,7 +702,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\17F</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -673,6 +713,11 @@
       <c r="E9" t="inlineStr">
         <is>
           <t>17F110室</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>lock-hlw-23</t>
         </is>
       </c>
     </row>
@@ -689,7 +734,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\17F</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -700,6 +745,11 @@
       <c r="E10" t="inlineStr">
         <is>
           <t>17F103西门</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>lock-hlw-24</t>
         </is>
       </c>
     </row>
@@ -716,7 +766,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\17F</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -727,6 +777,11 @@
       <c r="E11" t="inlineStr">
         <is>
           <t>17F103东门</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>lock-hlw-25</t>
         </is>
       </c>
     </row>
@@ -743,7 +798,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\17F</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -754,6 +809,11 @@
       <c r="E12" t="inlineStr">
         <is>
           <t>17F102西门</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>lock-hlw-26</t>
         </is>
       </c>
     </row>
@@ -770,7 +830,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\17F</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -781,6 +841,11 @@
       <c r="E13" t="inlineStr">
         <is>
           <t>17F102东门</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>lock-hlw-27</t>
         </is>
       </c>
     </row>
@@ -797,7 +862,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\17F</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -808,6 +873,11 @@
       <c r="E14" t="inlineStr">
         <is>
           <t>17F101西门</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>lock-hlw-28</t>
         </is>
       </c>
     </row>
@@ -824,7 +894,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\17F</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -835,6 +905,11 @@
       <c r="E15" t="inlineStr">
         <is>
           <t>17F101东门</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>lock-hlw-29</t>
         </is>
       </c>
     </row>
@@ -851,7 +926,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\17F</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -862,6 +937,11 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>17F105室</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>lock-hlw-30</t>
         </is>
       </c>
     </row>
@@ -878,7 +958,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\16F</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -889,6 +969,11 @@
       <c r="E17" t="inlineStr">
         <is>
           <t>16F103东门</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>lock-hlw-31</t>
         </is>
       </c>
     </row>
@@ -905,7 +990,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\16F</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -916,6 +1001,11 @@
       <c r="E18" t="inlineStr">
         <is>
           <t>16F103西门</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>lock-hlw-32</t>
         </is>
       </c>
     </row>
@@ -932,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\16F</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -943,6 +1033,11 @@
       <c r="E19" t="inlineStr">
         <is>
           <t>16F105室</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>lock-hlw-33</t>
         </is>
       </c>
     </row>
@@ -959,7 +1054,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\16F</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -970,6 +1065,11 @@
       <c r="E20" t="inlineStr">
         <is>
           <t>16F104西门</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>lock-hlw-34</t>
         </is>
       </c>
     </row>
@@ -986,7 +1086,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\16F</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -997,6 +1097,11 @@
       <c r="E21" t="inlineStr">
         <is>
           <t>16F104东门</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>lock-hlw-35</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1118,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\16F</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1024,6 +1129,11 @@
       <c r="E22" t="inlineStr">
         <is>
           <t>16F106室</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>lock-hlw-36</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1150,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\16F</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1051,6 +1161,11 @@
       <c r="E23" t="inlineStr">
         <is>
           <t>16F107室</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>lock-hlw-46</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1182,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\15F</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1078,6 +1193,11 @@
       <c r="E24" t="inlineStr">
         <is>
           <t>15F101西门</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>lock-hlw-52</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1214,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\15F</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1105,6 +1225,11 @@
       <c r="E25" t="inlineStr">
         <is>
           <t>15F101东门</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>lock-hlw-53</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1246,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\15F</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1132,6 +1257,11 @@
       <c r="E26" t="inlineStr">
         <is>
           <t>15F102西门</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>lock-hlw-54</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1278,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\15F</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1159,6 +1289,11 @@
       <c r="E27" t="inlineStr">
         <is>
           <t>15F102东门</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>lock-hlw-55</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1310,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\15F</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1186,6 +1321,11 @@
       <c r="E28" t="inlineStr">
         <is>
           <t>15F103东门</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>lock-hlw-56</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1342,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\15F</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1213,6 +1353,11 @@
       <c r="E29" t="inlineStr">
         <is>
           <t>15F103西门</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>lock-hlw-57</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1374,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\15F</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1240,6 +1385,11 @@
       <c r="E30" t="inlineStr">
         <is>
           <t>15F104东门</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>lock-hlw-58</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1406,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\15F</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1267,6 +1417,11 @@
       <c r="E31" t="inlineStr">
         <is>
           <t>15F104西门</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>lock-hlw-59</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1438,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\15F</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1294,6 +1449,11 @@
       <c r="E32" t="inlineStr">
         <is>
           <t>15F107室</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>lock-hlw-60</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1470,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\15F</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1321,6 +1481,11 @@
       <c r="E33" t="inlineStr">
         <is>
           <t>15F106室</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>lock-hlw-61</t>
         </is>
       </c>
     </row>
@@ -1350,6 +1515,11 @@
           <t>15F109北门</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>lock-hlw-62</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1377,6 +1547,11 @@
           <t>15F108北门</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>lock-hlw-63</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1404,6 +1579,11 @@
           <t>15F108南门</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>lock-hlw-64</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1431,6 +1611,11 @@
           <t>15F109南门</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>lock-hlw-65</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1445,7 +1630,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\14F</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1456,6 +1641,11 @@
       <c r="E38" t="inlineStr">
         <is>
           <t>14F102西门</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>lock-hlw-77</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1662,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\14F</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1483,6 +1673,11 @@
       <c r="E39" t="inlineStr">
         <is>
           <t>14F102东门</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>lock-hlw-78</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1694,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\14F</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1510,6 +1705,11 @@
       <c r="E40" t="inlineStr">
         <is>
           <t>14F101西门</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>lock-hlw-79</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1726,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\14F</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1537,6 +1737,11 @@
       <c r="E41" t="inlineStr">
         <is>
           <t>14F101东门</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>lock-hlw-80</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1758,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\14F</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1564,6 +1769,11 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>14F103东门</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>lock-hlw-81</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1790,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\14F</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1591,6 +1801,11 @@
       <c r="E43" t="inlineStr">
         <is>
           <t>14F103西门</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>lock-hlw-82</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1822,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\14F</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1618,6 +1833,11 @@
       <c r="E44" t="inlineStr">
         <is>
           <t>14F104东门</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>lock-hlw-83</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1854,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\14F</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1645,6 +1865,11 @@
       <c r="E45" t="inlineStr">
         <is>
           <t>14F104西门</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>lock-hlw-84</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1886,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\14F</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1672,6 +1897,11 @@
       <c r="E46" t="inlineStr">
         <is>
           <t>14F105室</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>lock-hlw-85</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1918,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\14F</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1699,6 +1929,11 @@
       <c r="E47" t="inlineStr">
         <is>
           <t>14F106室</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>lock-hlw-86</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1950,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\14F</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1726,6 +1961,11 @@
       <c r="E48" t="inlineStr">
         <is>
           <t>14F107室</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>lock-hlw-87</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1982,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\13F</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1753,6 +1993,11 @@
       <c r="E49" t="inlineStr">
         <is>
           <t>13F101西门</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>lock-hlw-121</t>
         </is>
       </c>
     </row>
@@ -1769,7 +2014,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\13F</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1780,6 +2025,11 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>13F101东门</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>lock-hlw-122</t>
         </is>
       </c>
     </row>
@@ -1796,7 +2046,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\13F</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1807,6 +2057,11 @@
       <c r="E51" t="inlineStr">
         <is>
           <t>13F102东门</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>lock-hlw-123</t>
         </is>
       </c>
     </row>
@@ -1823,7 +2078,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\13F</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1834,6 +2089,11 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>13F102西门</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>lock-hlw-124</t>
         </is>
       </c>
     </row>
@@ -1850,7 +2110,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\13F</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1861,6 +2121,11 @@
       <c r="E53" t="inlineStr">
         <is>
           <t>13F103东门</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>lock-hlw-125</t>
         </is>
       </c>
     </row>
@@ -1877,7 +2142,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\13F</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1888,6 +2153,11 @@
       <c r="E54" t="inlineStr">
         <is>
           <t>13F103西门</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>lock-hlw-126</t>
         </is>
       </c>
     </row>
@@ -1904,7 +2174,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\13F</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1915,6 +2185,11 @@
       <c r="E55" t="inlineStr">
         <is>
           <t>13F104东门</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>lock-hlw-127</t>
         </is>
       </c>
     </row>
@@ -1931,7 +2206,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\13F</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1942,6 +2217,11 @@
       <c r="E56" t="inlineStr">
         <is>
           <t>13F104西门</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>lock-hlw-128</t>
         </is>
       </c>
     </row>
@@ -1958,7 +2238,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\13F</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1969,6 +2249,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>13F105室</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>lock-hlw-129</t>
         </is>
       </c>
     </row>
@@ -1985,7 +2270,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\13F</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1996,6 +2281,11 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>13F106室</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>lock-hlw-130</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2302,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\13F</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2023,6 +2313,11 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>13F107室</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>lock-hlw-131</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2334,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\12F</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2050,6 +2345,11 @@
       <c r="E60" t="inlineStr">
         <is>
           <t>12F101西门</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>lock-hlw-165</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2366,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\12F</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2077,6 +2377,11 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>12F101东门</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>lock-hlw-166</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2398,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\12F</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2104,6 +2409,11 @@
       <c r="E62" t="inlineStr">
         <is>
           <t>12F102西门</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>lock-hlw-167</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2430,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\12F</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2131,6 +2441,11 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>12F102东门</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>lock-hlw-168</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2462,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\12F</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2158,6 +2473,11 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>12F103西门</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>lock-hlw-169</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2494,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\12F</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2185,6 +2505,11 @@
       <c r="E65" t="inlineStr">
         <is>
           <t>12F104室</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>lock-hlw-171</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2526,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\12F</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2212,6 +2537,11 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>12F105室</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>lock-hlw-172</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2558,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\12F</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2239,6 +2569,11 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>12F108室</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>lock-hlw-177</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2590,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\11F</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2266,6 +2601,11 @@
       <c r="E68" t="inlineStr">
         <is>
           <t>11F101西门</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>lock-hlw-183</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2622,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\11F</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2293,6 +2633,11 @@
       <c r="E69" t="inlineStr">
         <is>
           <t>11F101东门</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>lock-hlw-184</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2654,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\11F</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2320,6 +2665,11 @@
       <c r="E70" t="inlineStr">
         <is>
           <t>11F102西门</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>lock-hlw-185</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2686,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\11F</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2347,6 +2697,11 @@
       <c r="E71" t="inlineStr">
         <is>
           <t>11F102东门</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>lock-hlw-186</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2718,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\11F</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2374,6 +2729,11 @@
       <c r="E72" t="inlineStr">
         <is>
           <t>11F103西门</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>lock-hlw-187</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2750,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\11F</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2401,6 +2761,11 @@
       <c r="E73" t="inlineStr">
         <is>
           <t>11F103东门</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>lock-hlw-188</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2782,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\11F</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2428,6 +2793,11 @@
       <c r="E74" t="inlineStr">
         <is>
           <t>11F104室</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>lock-hlw-189</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2814,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\11F</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2455,6 +2825,11 @@
       <c r="E75" t="inlineStr">
         <is>
           <t>11F105室</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>lock-hlw-190</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2846,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\10F</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2482,6 +2857,11 @@
       <c r="E76" t="inlineStr">
         <is>
           <t>10F101西门</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>lock-hlw-201</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2878,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\10F</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2509,6 +2889,11 @@
       <c r="E77" t="inlineStr">
         <is>
           <t>10F101东门</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>lock-hlw-202</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2910,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\10F</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2536,6 +2921,11 @@
       <c r="E78" t="inlineStr">
         <is>
           <t>10F102西门</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>lock-hlw-203</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2942,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\10F</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2563,6 +2953,11 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>10F102东门</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>lock-hlw-204</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2974,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\10F</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2590,6 +2985,11 @@
       <c r="E80" t="inlineStr">
         <is>
           <t>10F103西门</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>lock-hlw-205</t>
         </is>
       </c>
     </row>
@@ -2606,7 +3006,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\10F</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2617,6 +3017,11 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>10F103东门</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>lock-hlw-206</t>
         </is>
       </c>
     </row>
@@ -2633,7 +3038,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\10F</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2644,6 +3049,11 @@
       <c r="E82" t="inlineStr">
         <is>
           <t>10F104室</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>lock-hlw-207</t>
         </is>
       </c>
     </row>
@@ -2660,7 +3070,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\10F</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2671,6 +3081,11 @@
       <c r="E83" t="inlineStr">
         <is>
           <t>10F105室</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>lock-hlw-208</t>
         </is>
       </c>
     </row>
@@ -2687,7 +3102,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\9F</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2698,6 +3113,11 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>9F101东门</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>lock-hlw-219</t>
         </is>
       </c>
     </row>
@@ -2714,7 +3134,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\9F</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2725,6 +3145,11 @@
       <c r="E85" t="inlineStr">
         <is>
           <t>9F101西门</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>lock-hlw-220</t>
         </is>
       </c>
     </row>
@@ -2741,7 +3166,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\9F</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2752,6 +3177,11 @@
       <c r="E86" t="inlineStr">
         <is>
           <t>9F102东门</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>lock-hlw-221</t>
         </is>
       </c>
     </row>
@@ -2768,7 +3198,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\9F</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2779,6 +3209,11 @@
       <c r="E87" t="inlineStr">
         <is>
           <t>9F102西门</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>lock-hlw-222</t>
         </is>
       </c>
     </row>
@@ -2795,7 +3230,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\9F</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2806,6 +3241,11 @@
       <c r="E88" t="inlineStr">
         <is>
           <t>9F103东门</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>lock-hlw-223</t>
         </is>
       </c>
     </row>
@@ -2822,7 +3262,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\9F</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2833,6 +3273,11 @@
       <c r="E89" t="inlineStr">
         <is>
           <t>9F103西门</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>lock-hlw-224</t>
         </is>
       </c>
     </row>
@@ -2849,7 +3294,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\9F</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2860,6 +3305,11 @@
       <c r="E90" t="inlineStr">
         <is>
           <t>9F104室</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>lock-hlw-225</t>
         </is>
       </c>
     </row>
@@ -2876,7 +3326,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\9F</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2887,6 +3337,11 @@
       <c r="E91" t="inlineStr">
         <is>
           <t>9F105室</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>lock-hlw-226</t>
         </is>
       </c>
     </row>
@@ -2903,7 +3358,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\8F</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2914,6 +3369,11 @@
       <c r="E92" t="inlineStr">
         <is>
           <t>8F101西门</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>lock-hlw-237</t>
         </is>
       </c>
     </row>
@@ -2930,7 +3390,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\8F</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2941,6 +3401,11 @@
       <c r="E93" t="inlineStr">
         <is>
           <t>8F101东门</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>lock-hlw-238</t>
         </is>
       </c>
     </row>
@@ -2957,7 +3422,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\8F</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2968,6 +3433,11 @@
       <c r="E94" t="inlineStr">
         <is>
           <t>8F102东门</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>lock-hlw-239</t>
         </is>
       </c>
     </row>
@@ -2984,7 +3454,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\8F</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2995,6 +3465,11 @@
       <c r="E95" t="inlineStr">
         <is>
           <t>8F102西门</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>lock-hlw-240</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3486,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\8F</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3022,6 +3497,11 @@
       <c r="E96" t="inlineStr">
         <is>
           <t>8F103东门</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>lock-hlw-241</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3518,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\8F</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3049,6 +3529,11 @@
       <c r="E97" t="inlineStr">
         <is>
           <t>8F103西门</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>lock-hlw-242</t>
         </is>
       </c>
     </row>
@@ -3065,7 +3550,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\8F</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3076,6 +3561,11 @@
       <c r="E98" t="inlineStr">
         <is>
           <t>8F104东门</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>lock-hlw-243</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3582,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\8F</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3103,6 +3593,11 @@
       <c r="E99" t="inlineStr">
         <is>
           <t>8F104西门</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>lock-hlw-244</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3614,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\8F</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3130,6 +3625,11 @@
       <c r="E100" t="inlineStr">
         <is>
           <t>8F105室</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>lock-hlw-245</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3646,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\8F</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3157,6 +3657,11 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>8F106室</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>lock-hlw-246</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3678,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\7F</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3184,6 +3689,11 @@
       <c r="E102" t="inlineStr">
         <is>
           <t>7F101西门</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>lock-hlw-265</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3710,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\7F</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3211,6 +3721,11 @@
       <c r="E103" t="inlineStr">
         <is>
           <t>7F101东门</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>lock-hlw-266</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3742,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\7F</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3238,6 +3753,11 @@
       <c r="E104" t="inlineStr">
         <is>
           <t>7F102东门</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>lock-hlw-267</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3774,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\7F</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3265,6 +3785,11 @@
       <c r="E105" t="inlineStr">
         <is>
           <t>7F102西门</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>lock-hlw-268</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3806,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\7F</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3292,6 +3817,11 @@
       <c r="E106" t="inlineStr">
         <is>
           <t>7F103东门</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>lock-hlw-269</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3838,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\7F</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3319,6 +3849,11 @@
       <c r="E107" t="inlineStr">
         <is>
           <t>7F103西门</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>lock-hlw-270</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3870,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\7F</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3346,6 +3881,11 @@
       <c r="E108" t="inlineStr">
         <is>
           <t>7F104西门</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>lock-hlw-271</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3902,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\7F</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3373,6 +3913,11 @@
       <c r="E109" t="inlineStr">
         <is>
           <t>7F104东门</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>lock-hlw-272</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3934,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\7F</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3400,6 +3945,11 @@
       <c r="E110" t="inlineStr">
         <is>
           <t>7F105室</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>lock-hlw-273</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3966,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\7F</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3427,6 +3977,11 @@
       <c r="E111" t="inlineStr">
         <is>
           <t>7F106室</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>lock-hlw-274</t>
         </is>
       </c>
     </row>
@@ -3443,7 +3998,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\6F</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3454,6 +4009,11 @@
       <c r="E112" t="inlineStr">
         <is>
           <t>6F101东门</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>lock-hlw-302</t>
         </is>
       </c>
     </row>
@@ -3470,7 +4030,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\6F</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3481,6 +4041,11 @@
       <c r="E113" t="inlineStr">
         <is>
           <t>6F101西门</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>lock-hlw-303</t>
         </is>
       </c>
     </row>
@@ -3497,7 +4062,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\6F</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3508,6 +4073,11 @@
       <c r="E114" t="inlineStr">
         <is>
           <t>6F102东门</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>lock-hlw-304</t>
         </is>
       </c>
     </row>
@@ -3524,7 +4094,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\6F</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3535,6 +4105,11 @@
       <c r="E115" t="inlineStr">
         <is>
           <t>6F102西门</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>lock-hlw-305</t>
         </is>
       </c>
     </row>
@@ -3551,7 +4126,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\6F</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3562,6 +4137,11 @@
       <c r="E116" t="inlineStr">
         <is>
           <t>6F103室</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>lock-hlw-306</t>
         </is>
       </c>
     </row>
@@ -3578,7 +4158,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\6F</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3589,6 +4169,11 @@
       <c r="E117" t="inlineStr">
         <is>
           <t>6F104室</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>lock-hlw-307</t>
         </is>
       </c>
     </row>
@@ -3605,7 +4190,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\5F</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3616,6 +4201,11 @@
       <c r="E118" t="inlineStr">
         <is>
           <t>5F101西门</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>lock-hlw-324</t>
         </is>
       </c>
     </row>
@@ -3632,7 +4222,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\5F</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3643,6 +4233,11 @@
       <c r="E119" t="inlineStr">
         <is>
           <t>5F101东门</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>lock-hlw-325</t>
         </is>
       </c>
     </row>
@@ -3659,7 +4254,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\5F</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3670,6 +4265,11 @@
       <c r="E120" t="inlineStr">
         <is>
           <t>5F102东门</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>lock-hlw-326</t>
         </is>
       </c>
     </row>
@@ -3686,7 +4286,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\5F</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3697,6 +4297,11 @@
       <c r="E121" t="inlineStr">
         <is>
           <t>5F102西门</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>lock-hlw-327</t>
         </is>
       </c>
     </row>
@@ -3713,7 +4318,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\5F</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3724,6 +4329,11 @@
       <c r="E122" t="inlineStr">
         <is>
           <t>5F103东门</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>lock-hlw-328</t>
         </is>
       </c>
     </row>
@@ -3740,7 +4350,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\5F</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3751,6 +4361,11 @@
       <c r="E123" t="inlineStr">
         <is>
           <t>5F103西门</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>lock-hlw-329</t>
         </is>
       </c>
     </row>
@@ -3767,7 +4382,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\5F</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3778,6 +4393,11 @@
       <c r="E124" t="inlineStr">
         <is>
           <t>5F104东门</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>lock-hlw-330</t>
         </is>
       </c>
     </row>
@@ -3794,7 +4414,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\5F</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3805,6 +4425,11 @@
       <c r="E125" t="inlineStr">
         <is>
           <t>5F104西门</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>lock-hlw-331</t>
         </is>
       </c>
     </row>
@@ -3821,7 +4446,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\5F</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3832,6 +4457,11 @@
       <c r="E126" t="inlineStr">
         <is>
           <t>5F106室</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>lock-hlw-333</t>
         </is>
       </c>
     </row>
@@ -3848,7 +4478,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\4F</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3859,6 +4489,11 @@
       <c r="E127" t="inlineStr">
         <is>
           <t>4F101西门</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>lock-hlw-352</t>
         </is>
       </c>
     </row>
@@ -3875,7 +4510,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\4F</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3886,6 +4521,11 @@
       <c r="E128" t="inlineStr">
         <is>
           <t>4F101东门</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>lock-hlw-353</t>
         </is>
       </c>
     </row>
@@ -3915,6 +4555,11 @@
           <t>4F102西门</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>lock-hlw-354</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3929,7 +4574,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\4F</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3940,6 +4585,11 @@
       <c r="E130" t="inlineStr">
         <is>
           <t>4F102东门</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>lock-hlw-355</t>
         </is>
       </c>
     </row>
@@ -3956,7 +4606,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\4F</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3967,6 +4617,11 @@
       <c r="E131" t="inlineStr">
         <is>
           <t>4F103东门</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>lock-hlw-356</t>
         </is>
       </c>
     </row>
@@ -3983,7 +4638,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\4F</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3994,6 +4649,11 @@
       <c r="E132" t="inlineStr">
         <is>
           <t>4F103西门</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>lock-hlw-357</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4670,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\4F</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4021,6 +4681,11 @@
       <c r="E133" t="inlineStr">
         <is>
           <t>4F104东门</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>lock-hlw-358</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4702,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\4F</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4048,6 +4713,11 @@
       <c r="E134" t="inlineStr">
         <is>
           <t>4F104西门</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>lock-hlw-359</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4734,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\4F</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4075,6 +4745,11 @@
       <c r="E135" t="inlineStr">
         <is>
           <t>4F105室</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>lock-hlw-360</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4766,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\4F</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4102,6 +4777,11 @@
       <c r="E136" t="inlineStr">
         <is>
           <t>4F106室</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>lock-hlw-361</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4798,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\3F</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4129,6 +4809,11 @@
       <c r="E137" t="inlineStr">
         <is>
           <t>3F101东门</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>lock-hlw-380</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4830,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\3F</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4156,6 +4841,11 @@
       <c r="E138" t="inlineStr">
         <is>
           <t>3F101西门</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>lock-hlw-381</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4862,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\3F</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4183,6 +4873,11 @@
       <c r="E139" t="inlineStr">
         <is>
           <t>3F102西门</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>lock-hlw-382</t>
         </is>
       </c>
     </row>
@@ -4199,7 +4894,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\3F</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4210,6 +4905,11 @@
       <c r="E140" t="inlineStr">
         <is>
           <t>3F102东门</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>lock-hlw-383</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4926,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\3F</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4237,6 +4937,11 @@
       <c r="E141" t="inlineStr">
         <is>
           <t>3F103西门</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>lock-hlw-384</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4958,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\3F</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4264,6 +4969,11 @@
       <c r="E142" t="inlineStr">
         <is>
           <t>3F103东门</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>lock-hlw-385</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4990,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\3F</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4291,6 +5001,11 @@
       <c r="E143" t="inlineStr">
         <is>
           <t>3F104西门</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>lock-hlw-386</t>
         </is>
       </c>
     </row>
@@ -4307,7 +5022,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\3F</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4318,6 +5033,11 @@
       <c r="E144" t="inlineStr">
         <is>
           <t>3F104东门</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>lock-hlw-387</t>
         </is>
       </c>
     </row>
@@ -4334,7 +5054,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\3F</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4345,6 +5065,11 @@
       <c r="E145" t="inlineStr">
         <is>
           <t>3F105</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>lock-hlw-388</t>
         </is>
       </c>
     </row>
@@ -4361,7 +5086,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\3F</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4372,6 +5097,11 @@
       <c r="E146" t="inlineStr">
         <is>
           <t>3F106室</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>lock-hlw-389</t>
         </is>
       </c>
     </row>
@@ -4388,7 +5118,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\2F</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4399,6 +5129,11 @@
       <c r="E147" t="inlineStr">
         <is>
           <t>2F101东门</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>lock-hlw-407</t>
         </is>
       </c>
     </row>
@@ -4415,7 +5150,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\2F</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4426,6 +5161,11 @@
       <c r="E148" t="inlineStr">
         <is>
           <t>2F101西门</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>lock-hlw-408</t>
         </is>
       </c>
     </row>
@@ -4442,7 +5182,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\2F</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4453,6 +5193,11 @@
       <c r="E149" t="inlineStr">
         <is>
           <t>2F102西门</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>lock-hlw-409</t>
         </is>
       </c>
     </row>
@@ -4469,7 +5214,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\2F</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4480,6 +5225,11 @@
       <c r="E150" t="inlineStr">
         <is>
           <t>2F102东门</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>lock-hlw-410</t>
         </is>
       </c>
     </row>
@@ -4496,7 +5246,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\2F</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4507,6 +5257,11 @@
       <c r="E151" t="inlineStr">
         <is>
           <t>2F103东门</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>lock-hlw-411</t>
         </is>
       </c>
     </row>
@@ -4523,7 +5278,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\2F</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4534,6 +5289,11 @@
       <c r="E152" t="inlineStr">
         <is>
           <t>2F103西门</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>lock-hlw-412</t>
         </is>
       </c>
     </row>
@@ -4550,7 +5310,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\2F</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4561,6 +5321,11 @@
       <c r="E153" t="inlineStr">
         <is>
           <t>2F104东门</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>lock-hlw-413</t>
         </is>
       </c>
     </row>
@@ -4577,7 +5342,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\2F</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4588,6 +5353,11 @@
       <c r="E154" t="inlineStr">
         <is>
           <t>2F104西门</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>lock-hlw-414</t>
         </is>
       </c>
     </row>
@@ -4604,7 +5374,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\2F</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4615,6 +5385,11 @@
       <c r="E155" t="inlineStr">
         <is>
           <t>2F105室</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>lock-hlw-415</t>
         </is>
       </c>
     </row>
@@ -4631,7 +5406,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\2F</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4642,6 +5417,11 @@
       <c r="E156" t="inlineStr">
         <is>
           <t>2F106室</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>lock-hlw-416</t>
         </is>
       </c>
     </row>
@@ -4658,7 +5438,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\1F</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4669,6 +5449,11 @@
       <c r="E157" t="inlineStr">
         <is>
           <t>1F101东门</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>lock-hlw-427</t>
         </is>
       </c>
     </row>
@@ -4685,7 +5470,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\1F</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4696,6 +5481,11 @@
       <c r="E158" t="inlineStr">
         <is>
           <t>1F103东门</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>lock-hlw-429</t>
         </is>
       </c>
     </row>
@@ -4712,7 +5502,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\1F</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4723,6 +5513,11 @@
       <c r="E159" t="inlineStr">
         <is>
           <t>1F103西门</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>lock-hlw-430</t>
         </is>
       </c>
     </row>
@@ -4739,7 +5534,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\1F</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4750,6 +5545,11 @@
       <c r="E160" t="inlineStr">
         <is>
           <t>1F104东门</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>lock-hlw-431</t>
         </is>
       </c>
     </row>
@@ -4766,7 +5566,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\1F</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4777,6 +5577,11 @@
       <c r="E161" t="inlineStr">
         <is>
           <t>1F104西门</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>lock-hlw-432</t>
         </is>
       </c>
     </row>
@@ -4793,7 +5598,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>安徽大学\龙河校区\互联网大楼\互联网大楼北楼</t>
+          <t>安徽大学\龙河校区\互联网大楼\北楼\1F</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4804,6 +5609,11 @@
       <c r="E162" t="inlineStr">
         <is>
           <t>1F105室</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>lock-hlw-433</t>
         </is>
       </c>
     </row>
